--- a/tests/testthat/clustered.xlsx
+++ b/tests/testthat/clustered.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="28800" yWindow="440" windowWidth="28800" windowHeight="31960" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2020" sheetId="7" r:id="rId1"/>
-    <sheet name="2019" sheetId="6" r:id="rId2"/>
-    <sheet name="bar_baz" sheetId="5" r:id="rId3"/>
-    <sheet name="foo" sheetId="1" r:id="rId4"/>
+    <sheet name="repeated" sheetId="8" r:id="rId1"/>
+    <sheet name="2020" sheetId="7" r:id="rId2"/>
+    <sheet name="2019" sheetId="6" r:id="rId3"/>
+    <sheet name="bar_baz" sheetId="5" r:id="rId4"/>
+    <sheet name="foo" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="41">
   <si>
     <t>A2</t>
   </si>
@@ -141,6 +142,18 @@
   </si>
   <si>
     <t>bum</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>this cell is for test in multiple match for regex '2018'</t>
   </si>
 </sst>
 </file>
@@ -455,3102 +468,1918 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>2017</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>217</v>
+      </c>
+      <c r="L6">
+        <v>218</v>
+      </c>
+      <c r="M6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>2017</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>220</v>
+      </c>
+      <c r="L7">
+        <v>221</v>
+      </c>
+      <c r="M7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>2017</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>223</v>
+      </c>
+      <c r="L8">
+        <v>224</v>
+      </c>
+      <c r="M8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>2017</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>226</v>
+      </c>
+      <c r="L9">
+        <v>227</v>
+      </c>
+      <c r="M9">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>2017</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>229</v>
+      </c>
+      <c r="L10">
+        <v>230</v>
+      </c>
+      <c r="M10">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>2017</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>232</v>
+      </c>
+      <c r="L11">
+        <v>233</v>
+      </c>
+      <c r="M11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>2017</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>235</v>
+      </c>
+      <c r="L12">
+        <v>236</v>
+      </c>
+      <c r="M12">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>2017</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>238</v>
+      </c>
+      <c r="L13">
+        <v>239</v>
+      </c>
+      <c r="M13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="I14">
+        <v>2017</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>241</v>
+      </c>
+      <c r="L14">
+        <v>242</v>
+      </c>
+      <c r="M14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>2017</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>244</v>
+      </c>
+      <c r="L15">
+        <v>245</v>
+      </c>
+      <c r="M15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="I16">
+        <v>2017</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>247</v>
+      </c>
+      <c r="L16">
+        <v>248</v>
+      </c>
+      <c r="M16">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="I17">
+        <v>2017</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <v>250</v>
+      </c>
+      <c r="L17">
+        <v>251</v>
+      </c>
+      <c r="M17">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>39</v>
+      </c>
+      <c r="I18">
+        <v>2018</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>253</v>
+      </c>
+      <c r="L18">
+        <v>254</v>
+      </c>
+      <c r="M18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3">
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>41</v>
+      </c>
+      <c r="E19">
         <v>42</v>
       </c>
-      <c r="I3">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>22</v>
-      </c>
-      <c r="M3">
-        <v>52</v>
-      </c>
-      <c r="N3">
-        <v>82</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>32</v>
-      </c>
-      <c r="R3">
-        <v>62</v>
-      </c>
-      <c r="S3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="I19">
+        <v>2018</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>256</v>
+      </c>
+      <c r="L19">
+        <v>257</v>
+      </c>
+      <c r="M19">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
-      </c>
-      <c r="H4">
+      <c r="C20">
         <v>43</v>
       </c>
-      <c r="I4">
-        <v>73</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>53</v>
-      </c>
-      <c r="N4">
-        <v>83</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>33</v>
-      </c>
-      <c r="R4">
-        <v>63</v>
-      </c>
-      <c r="S4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
+      <c r="D20">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>2018</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>259</v>
+      </c>
+      <c r="L20">
+        <v>260</v>
+      </c>
+      <c r="M20">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>34</v>
-      </c>
-      <c r="D5">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>44</v>
-      </c>
-      <c r="I5">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>54</v>
-      </c>
-      <c r="N5">
-        <v>84</v>
-      </c>
-      <c r="P5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>34</v>
-      </c>
-      <c r="R5">
-        <v>64</v>
-      </c>
-      <c r="S5">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
+      <c r="C21">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>48</v>
+      </c>
+      <c r="I21">
+        <v>2018</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>262</v>
+      </c>
+      <c r="L21">
+        <v>263</v>
+      </c>
+      <c r="M21">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>45</v>
-      </c>
-      <c r="I6">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>25</v>
-      </c>
-      <c r="M6">
-        <v>55</v>
-      </c>
-      <c r="N6">
-        <v>85</v>
-      </c>
-      <c r="P6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6">
-        <v>35</v>
-      </c>
-      <c r="R6">
-        <v>65</v>
-      </c>
-      <c r="S6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
+      <c r="C22">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>51</v>
+      </c>
+      <c r="I22">
+        <v>2018</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>265</v>
+      </c>
+      <c r="L22">
+        <v>266</v>
+      </c>
+      <c r="M22">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23">
         <v>6</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>46</v>
-      </c>
-      <c r="I7">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>26</v>
-      </c>
-      <c r="M7">
-        <v>56</v>
-      </c>
-      <c r="N7">
-        <v>86</v>
-      </c>
-      <c r="P7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>36</v>
-      </c>
-      <c r="R7">
-        <v>66</v>
-      </c>
-      <c r="S7">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>47</v>
-      </c>
-      <c r="I8">
-        <v>77</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>27</v>
-      </c>
-      <c r="M8">
-        <v>57</v>
-      </c>
-      <c r="N8">
-        <v>87</v>
-      </c>
-      <c r="P8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <v>37</v>
-      </c>
-      <c r="R8">
-        <v>67</v>
-      </c>
-      <c r="S8">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>18</v>
-      </c>
-      <c r="H9">
-        <v>48</v>
-      </c>
-      <c r="I9">
-        <v>78</v>
-      </c>
-      <c r="K9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>28</v>
-      </c>
-      <c r="M9">
-        <v>58</v>
-      </c>
-      <c r="N9">
-        <v>88</v>
-      </c>
-      <c r="P9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9">
-        <v>38</v>
-      </c>
-      <c r="R9">
-        <v>68</v>
-      </c>
-      <c r="S9">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>39</v>
-      </c>
-      <c r="D10">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>49</v>
-      </c>
-      <c r="I10">
-        <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10">
-        <v>29</v>
-      </c>
-      <c r="M10">
-        <v>59</v>
-      </c>
-      <c r="N10">
-        <v>89</v>
-      </c>
-      <c r="P10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>39</v>
-      </c>
-      <c r="R10">
-        <v>69</v>
-      </c>
-      <c r="S10">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
-      </c>
-      <c r="D11">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>50</v>
-      </c>
-      <c r="I11">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-      <c r="M11">
-        <v>60</v>
-      </c>
-      <c r="N11">
-        <v>90</v>
-      </c>
-      <c r="P11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11">
-        <v>40</v>
-      </c>
-      <c r="R11">
-        <v>70</v>
-      </c>
-      <c r="S11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>41</v>
-      </c>
-      <c r="D12">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12">
-        <v>21</v>
-      </c>
-      <c r="H12">
-        <v>51</v>
-      </c>
-      <c r="I12">
-        <v>81</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12">
-        <v>31</v>
-      </c>
-      <c r="M12">
-        <v>61</v>
-      </c>
-      <c r="N12">
-        <v>91</v>
-      </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12">
-        <v>41</v>
-      </c>
-      <c r="R12">
-        <v>71</v>
-      </c>
-      <c r="S12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>42</v>
-      </c>
-      <c r="D13">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>22</v>
-      </c>
-      <c r="H13">
-        <v>52</v>
-      </c>
-      <c r="I13">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13">
-        <v>32</v>
-      </c>
-      <c r="M13">
-        <v>62</v>
-      </c>
-      <c r="N13">
-        <v>92</v>
-      </c>
-      <c r="P13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13">
-        <v>42</v>
-      </c>
-      <c r="R13">
-        <v>72</v>
-      </c>
-      <c r="S13">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>43</v>
-      </c>
-      <c r="D14">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>23</v>
-      </c>
-      <c r="H14">
-        <v>53</v>
-      </c>
-      <c r="I14">
-        <v>83</v>
-      </c>
-      <c r="K14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14">
-        <v>33</v>
-      </c>
-      <c r="M14">
-        <v>63</v>
-      </c>
-      <c r="N14">
-        <v>93</v>
-      </c>
-      <c r="P14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14">
-        <v>43</v>
-      </c>
-      <c r="R14">
-        <v>73</v>
-      </c>
-      <c r="S14">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>44</v>
-      </c>
-      <c r="D15">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>24</v>
-      </c>
-      <c r="H15">
-        <v>54</v>
-      </c>
-      <c r="I15">
-        <v>84</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15">
-        <v>34</v>
-      </c>
-      <c r="M15">
-        <v>64</v>
-      </c>
-      <c r="N15">
-        <v>94</v>
-      </c>
-      <c r="P15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15">
-        <v>44</v>
-      </c>
-      <c r="R15">
-        <v>74</v>
-      </c>
-      <c r="S15">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>55</v>
-      </c>
-      <c r="I16">
-        <v>85</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16">
-        <v>35</v>
-      </c>
-      <c r="M16">
-        <v>65</v>
-      </c>
-      <c r="N16">
-        <v>95</v>
-      </c>
-      <c r="P16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16">
-        <v>45</v>
-      </c>
-      <c r="R16">
-        <v>75</v>
-      </c>
-      <c r="S16">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>46</v>
-      </c>
-      <c r="D17">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>26</v>
-      </c>
-      <c r="H17">
-        <v>56</v>
-      </c>
-      <c r="I17">
-        <v>86</v>
-      </c>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17">
-        <v>36</v>
-      </c>
-      <c r="M17">
-        <v>66</v>
-      </c>
-      <c r="N17">
-        <v>96</v>
-      </c>
-      <c r="P17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q17">
-        <v>46</v>
-      </c>
-      <c r="R17">
-        <v>76</v>
-      </c>
-      <c r="S17">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>47</v>
-      </c>
-      <c r="D18">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>27</v>
-      </c>
-      <c r="H18">
-        <v>57</v>
-      </c>
-      <c r="I18">
-        <v>87</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18">
-        <v>37</v>
-      </c>
-      <c r="M18">
-        <v>67</v>
-      </c>
-      <c r="N18">
-        <v>97</v>
-      </c>
-      <c r="P18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18">
-        <v>47</v>
-      </c>
-      <c r="R18">
-        <v>77</v>
-      </c>
-      <c r="S18">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>48</v>
-      </c>
-      <c r="D19">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>28</v>
-      </c>
-      <c r="H19">
-        <v>58</v>
-      </c>
-      <c r="I19">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19">
-        <v>38</v>
-      </c>
-      <c r="M19">
-        <v>68</v>
-      </c>
-      <c r="N19">
-        <v>98</v>
-      </c>
-      <c r="P19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19">
-        <v>48</v>
-      </c>
-      <c r="R19">
-        <v>78</v>
-      </c>
-      <c r="S19">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>49</v>
-      </c>
-      <c r="D20">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20">
-        <v>29</v>
-      </c>
-      <c r="H20">
-        <v>59</v>
-      </c>
-      <c r="I20">
-        <v>89</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20">
-        <v>39</v>
-      </c>
-      <c r="M20">
-        <v>69</v>
-      </c>
-      <c r="N20">
-        <v>99</v>
-      </c>
-      <c r="P20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20">
-        <v>49</v>
-      </c>
-      <c r="R20">
-        <v>79</v>
-      </c>
-      <c r="S20">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>80</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-      <c r="H21">
-        <v>60</v>
-      </c>
-      <c r="I21">
-        <v>90</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21">
-        <v>40</v>
-      </c>
-      <c r="M21">
-        <v>70</v>
-      </c>
-      <c r="N21">
-        <v>100</v>
-      </c>
-      <c r="P21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21">
-        <v>50</v>
-      </c>
-      <c r="R21">
-        <v>80</v>
-      </c>
-      <c r="S21">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>51</v>
-      </c>
-      <c r="D22">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22">
-        <v>31</v>
-      </c>
-      <c r="H22">
-        <v>61</v>
-      </c>
-      <c r="I22">
-        <v>91</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22">
-        <v>41</v>
-      </c>
-      <c r="M22">
-        <v>71</v>
-      </c>
-      <c r="N22">
-        <v>101</v>
-      </c>
-      <c r="P22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22">
-        <v>51</v>
-      </c>
-      <c r="R22">
-        <v>81</v>
-      </c>
-      <c r="S22">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
       </c>
       <c r="C23">
         <v>52</v>
       </c>
       <c r="D23">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>54</v>
+      </c>
+      <c r="I23">
+        <v>2018</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>268</v>
+      </c>
+      <c r="L23">
+        <v>269</v>
+      </c>
+      <c r="M23">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2018</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>57</v>
+      </c>
+      <c r="I24">
+        <v>2018</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>271</v>
+      </c>
+      <c r="L24">
+        <v>272</v>
+      </c>
+      <c r="M24">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="I25">
+        <v>2018</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>274</v>
+      </c>
+      <c r="L25">
+        <v>275</v>
+      </c>
+      <c r="M25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2018</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <v>63</v>
+      </c>
+      <c r="I26">
+        <v>2018</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>277</v>
+      </c>
+      <c r="L26">
+        <v>278</v>
+      </c>
+      <c r="M26">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2018</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>2018</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>280</v>
+      </c>
+      <c r="L27">
+        <v>281</v>
+      </c>
+      <c r="M27">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2018</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>68</v>
+      </c>
+      <c r="E28">
+        <v>69</v>
+      </c>
+      <c r="I28">
+        <v>2018</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>283</v>
+      </c>
+      <c r="L28">
+        <v>284</v>
+      </c>
+      <c r="M28">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2018</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>71</v>
+      </c>
+      <c r="E29">
+        <v>72</v>
+      </c>
+      <c r="I29">
+        <v>2018</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>286</v>
+      </c>
+      <c r="L29">
+        <v>287</v>
+      </c>
+      <c r="M29">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2019</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>75</v>
+      </c>
+      <c r="I30">
+        <v>2019</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>289</v>
+      </c>
+      <c r="L30">
+        <v>290</v>
+      </c>
+      <c r="M30">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2019</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>2019</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>292</v>
+      </c>
+      <c r="L31">
+        <v>293</v>
+      </c>
+      <c r="M31">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>81</v>
+      </c>
+      <c r="I32">
+        <v>2019</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>295</v>
+      </c>
+      <c r="L32">
+        <v>296</v>
+      </c>
+      <c r="M32">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2019</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
         <v>82</v>
       </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23">
+      <c r="D33">
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <v>84</v>
+      </c>
+      <c r="I33">
+        <v>2019</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>298</v>
+      </c>
+      <c r="L33">
+        <v>299</v>
+      </c>
+      <c r="M33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>85</v>
+      </c>
+      <c r="D34">
+        <v>86</v>
+      </c>
+      <c r="E34">
+        <v>87</v>
+      </c>
+      <c r="I34">
+        <v>2019</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>301</v>
+      </c>
+      <c r="L34">
+        <v>302</v>
+      </c>
+      <c r="M34">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2019</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>88</v>
+      </c>
+      <c r="D35">
+        <v>89</v>
+      </c>
+      <c r="E35">
+        <v>90</v>
+      </c>
+      <c r="I35">
+        <v>2019</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>304</v>
+      </c>
+      <c r="L35">
+        <v>305</v>
+      </c>
+      <c r="M35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <v>92</v>
+      </c>
+      <c r="E36">
+        <v>93</v>
+      </c>
+      <c r="I36">
+        <v>2019</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>307</v>
+      </c>
+      <c r="L36">
+        <v>308</v>
+      </c>
+      <c r="M36">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2019</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>94</v>
+      </c>
+      <c r="D37">
+        <v>95</v>
+      </c>
+      <c r="E37">
+        <v>96</v>
+      </c>
+      <c r="I37">
+        <v>2019</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>310</v>
+      </c>
+      <c r="L37">
+        <v>311</v>
+      </c>
+      <c r="M37">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2019</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <v>98</v>
+      </c>
+      <c r="E38">
+        <v>99</v>
+      </c>
+      <c r="I38">
+        <v>2019</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>313</v>
+      </c>
+      <c r="L38">
+        <v>314</v>
+      </c>
+      <c r="M38">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2019</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>101</v>
+      </c>
+      <c r="E39">
+        <v>102</v>
+      </c>
+      <c r="I39">
+        <v>2019</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>316</v>
+      </c>
+      <c r="L39">
+        <v>317</v>
+      </c>
+      <c r="M39">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2019</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>103</v>
+      </c>
+      <c r="D40">
+        <v>104</v>
+      </c>
+      <c r="E40">
+        <v>105</v>
+      </c>
+      <c r="I40">
+        <v>2019</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>319</v>
+      </c>
+      <c r="L40">
+        <v>320</v>
+      </c>
+      <c r="M40">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>106</v>
+      </c>
+      <c r="D41">
+        <v>107</v>
+      </c>
+      <c r="E41">
+        <v>108</v>
+      </c>
+      <c r="I41">
+        <v>2019</v>
+      </c>
+      <c r="J41">
+        <v>12</v>
+      </c>
+      <c r="K41">
+        <v>322</v>
+      </c>
+      <c r="L41">
+        <v>323</v>
+      </c>
+      <c r="M41">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>32</v>
       </c>
-      <c r="H23">
-        <v>62</v>
-      </c>
-      <c r="I23">
-        <v>92</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23">
-        <v>42</v>
-      </c>
-      <c r="M23">
-        <v>72</v>
-      </c>
-      <c r="N23">
-        <v>102</v>
-      </c>
-      <c r="P23" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23">
-        <v>52</v>
-      </c>
-      <c r="R23">
-        <v>82</v>
-      </c>
-      <c r="S23">
+      <c r="B46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2017</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>110</v>
+      </c>
+      <c r="E50">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2017</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>53</v>
-      </c>
-      <c r="D24">
-        <v>83</v>
-      </c>
-      <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24">
-        <v>33</v>
-      </c>
-      <c r="H24">
-        <v>63</v>
-      </c>
-      <c r="I24">
-        <v>93</v>
-      </c>
-      <c r="K24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24">
-        <v>43</v>
-      </c>
-      <c r="M24">
-        <v>73</v>
-      </c>
-      <c r="N24">
-        <v>103</v>
-      </c>
-      <c r="P24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24">
-        <v>53</v>
-      </c>
-      <c r="R24">
-        <v>83</v>
-      </c>
-      <c r="S24">
+      <c r="D51">
         <v>113</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>54</v>
-      </c>
-      <c r="D25">
-        <v>84</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25">
-        <v>34</v>
-      </c>
-      <c r="H25">
-        <v>64</v>
-      </c>
-      <c r="I25">
-        <v>94</v>
-      </c>
-      <c r="K25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25">
-        <v>44</v>
-      </c>
-      <c r="M25">
-        <v>74</v>
-      </c>
-      <c r="N25">
-        <v>104</v>
-      </c>
-      <c r="P25" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25">
-        <v>54</v>
-      </c>
-      <c r="R25">
-        <v>84</v>
-      </c>
-      <c r="S25">
+      <c r="E51">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>55</v>
-      </c>
-      <c r="D26">
-        <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26">
-        <v>35</v>
-      </c>
-      <c r="H26">
-        <v>65</v>
-      </c>
-      <c r="I26">
-        <v>95</v>
-      </c>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26">
-        <v>45</v>
-      </c>
-      <c r="M26">
-        <v>75</v>
-      </c>
-      <c r="N26">
-        <v>105</v>
-      </c>
-      <c r="P26" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26">
-        <v>55</v>
-      </c>
-      <c r="R26">
-        <v>85</v>
-      </c>
-      <c r="S26">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2017</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
         <v>115</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>56</v>
-      </c>
-      <c r="D27">
-        <v>86</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27">
-        <v>36</v>
-      </c>
-      <c r="H27">
-        <v>66</v>
-      </c>
-      <c r="I27">
-        <v>96</v>
-      </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27">
-        <v>46</v>
-      </c>
-      <c r="M27">
-        <v>76</v>
-      </c>
-      <c r="N27">
-        <v>106</v>
-      </c>
-      <c r="P27" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27">
-        <v>56</v>
-      </c>
-      <c r="R27">
-        <v>86</v>
-      </c>
-      <c r="S27">
+      <c r="D52">
         <v>116</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>57</v>
-      </c>
-      <c r="D28">
-        <v>87</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28">
-        <v>37</v>
-      </c>
-      <c r="H28">
-        <v>67</v>
-      </c>
-      <c r="I28">
-        <v>97</v>
-      </c>
-      <c r="K28" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28">
-        <v>47</v>
-      </c>
-      <c r="M28">
-        <v>77</v>
-      </c>
-      <c r="N28">
-        <v>107</v>
-      </c>
-      <c r="P28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28">
-        <v>57</v>
-      </c>
-      <c r="R28">
-        <v>87</v>
-      </c>
-      <c r="S28">
+      <c r="E52">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>58</v>
-      </c>
-      <c r="D29">
-        <v>88</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29">
-        <v>38</v>
-      </c>
-      <c r="H29">
-        <v>68</v>
-      </c>
-      <c r="I29">
-        <v>98</v>
-      </c>
-      <c r="K29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29">
-        <v>48</v>
-      </c>
-      <c r="M29">
-        <v>78</v>
-      </c>
-      <c r="N29">
-        <v>108</v>
-      </c>
-      <c r="P29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29">
-        <v>58</v>
-      </c>
-      <c r="R29">
-        <v>88</v>
-      </c>
-      <c r="S29">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2017</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>59</v>
-      </c>
-      <c r="D30">
-        <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30">
-        <v>39</v>
-      </c>
-      <c r="H30">
-        <v>69</v>
-      </c>
-      <c r="I30">
-        <v>99</v>
-      </c>
-      <c r="K30" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30">
-        <v>49</v>
-      </c>
-      <c r="M30">
-        <v>79</v>
-      </c>
-      <c r="N30">
-        <v>109</v>
-      </c>
-      <c r="P30" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q30">
-        <v>59</v>
-      </c>
-      <c r="R30">
-        <v>89</v>
-      </c>
-      <c r="S30">
+      <c r="D53">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>60</v>
-      </c>
-      <c r="D31">
-        <v>90</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31">
-        <v>40</v>
-      </c>
-      <c r="H31">
-        <v>70</v>
-      </c>
-      <c r="I31">
-        <v>100</v>
-      </c>
-      <c r="K31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31">
-        <v>50</v>
-      </c>
-      <c r="M31">
-        <v>80</v>
-      </c>
-      <c r="N31">
-        <v>110</v>
-      </c>
-      <c r="P31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q31">
-        <v>60</v>
-      </c>
-      <c r="R31">
-        <v>90</v>
-      </c>
-      <c r="S31">
+      <c r="E53">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>22</v>
-      </c>
-      <c r="C36">
-        <v>52</v>
-      </c>
-      <c r="D36">
-        <v>82</v>
-      </c>
-      <c r="F36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>32</v>
-      </c>
-      <c r="H36">
-        <v>62</v>
-      </c>
-      <c r="I36">
-        <v>92</v>
-      </c>
-      <c r="K36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>42</v>
-      </c>
-      <c r="M36">
-        <v>72</v>
-      </c>
-      <c r="N36">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2017</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>121</v>
+      </c>
+      <c r="D54">
+        <v>122</v>
+      </c>
+      <c r="E54">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2017</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>124</v>
+      </c>
+      <c r="D55">
+        <v>125</v>
+      </c>
+      <c r="E55">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2017</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>127</v>
+      </c>
+      <c r="D56">
+        <v>128</v>
+      </c>
+      <c r="E56">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2017</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>130</v>
+      </c>
+      <c r="D57">
+        <v>131</v>
+      </c>
+      <c r="E57">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2017</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>133</v>
+      </c>
+      <c r="D58">
+        <v>134</v>
+      </c>
+      <c r="E58">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2017</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>136</v>
+      </c>
+      <c r="D59">
+        <v>137</v>
+      </c>
+      <c r="E59">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2017</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>139</v>
+      </c>
+      <c r="D60">
+        <v>140</v>
+      </c>
+      <c r="E60">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2017</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>142</v>
+      </c>
+      <c r="D61">
+        <v>143</v>
+      </c>
+      <c r="E61">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2018</v>
+      </c>
+      <c r="B62">
         <v>1</v>
       </c>
-      <c r="B37">
-        <v>23</v>
-      </c>
-      <c r="C37">
-        <v>53</v>
-      </c>
-      <c r="D37">
-        <v>83</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="C62">
+        <v>145</v>
+      </c>
+      <c r="D62">
+        <v>146</v>
+      </c>
+      <c r="E62">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2018</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>148</v>
+      </c>
+      <c r="D63">
+        <v>149</v>
+      </c>
+      <c r="E63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2018</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>151</v>
+      </c>
+      <c r="D64">
+        <v>152</v>
+      </c>
+      <c r="E64">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2018</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>154</v>
+      </c>
+      <c r="D65">
+        <v>155</v>
+      </c>
+      <c r="E65">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2018</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>157</v>
+      </c>
+      <c r="D66">
+        <v>158</v>
+      </c>
+      <c r="E66">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2018</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>160</v>
+      </c>
+      <c r="D67">
+        <v>161</v>
+      </c>
+      <c r="E67">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2018</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>163</v>
+      </c>
+      <c r="D68">
+        <v>164</v>
+      </c>
+      <c r="E68">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2018</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>166</v>
+      </c>
+      <c r="D69">
+        <v>167</v>
+      </c>
+      <c r="E69">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2018</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>169</v>
+      </c>
+      <c r="D70">
+        <v>170</v>
+      </c>
+      <c r="E70">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2018</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>172</v>
+      </c>
+      <c r="D71">
+        <v>173</v>
+      </c>
+      <c r="E71">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2018</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>175</v>
+      </c>
+      <c r="D72">
+        <v>176</v>
+      </c>
+      <c r="E72">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2018</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>178</v>
+      </c>
+      <c r="D73">
+        <v>179</v>
+      </c>
+      <c r="E73">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2019</v>
+      </c>
+      <c r="B74">
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>33</v>
-      </c>
-      <c r="H37">
-        <v>63</v>
-      </c>
-      <c r="I37">
-        <v>93</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>43</v>
-      </c>
-      <c r="M37">
-        <v>73</v>
-      </c>
-      <c r="N37">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C74">
+        <v>181</v>
+      </c>
+      <c r="D74">
+        <v>182</v>
+      </c>
+      <c r="E74">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2019</v>
+      </c>
+      <c r="B75">
         <v>2</v>
       </c>
-      <c r="B38">
-        <v>24</v>
-      </c>
-      <c r="C38">
-        <v>54</v>
-      </c>
-      <c r="D38">
-        <v>84</v>
-      </c>
-      <c r="F38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>34</v>
-      </c>
-      <c r="H38">
-        <v>64</v>
-      </c>
-      <c r="I38">
-        <v>94</v>
-      </c>
-      <c r="K38" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <v>44</v>
-      </c>
-      <c r="M38">
-        <v>74</v>
-      </c>
-      <c r="N38">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C75">
+        <v>184</v>
+      </c>
+      <c r="D75">
+        <v>185</v>
+      </c>
+      <c r="E75">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2019</v>
+      </c>
+      <c r="B76">
         <v>3</v>
       </c>
-      <c r="B39">
-        <v>25</v>
-      </c>
-      <c r="C39">
-        <v>55</v>
-      </c>
-      <c r="D39">
-        <v>85</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>35</v>
-      </c>
-      <c r="H39">
-        <v>65</v>
-      </c>
-      <c r="I39">
-        <v>95</v>
-      </c>
-      <c r="K39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L39">
-        <v>45</v>
-      </c>
-      <c r="M39">
-        <v>75</v>
-      </c>
-      <c r="N39">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="C76">
+        <v>187</v>
+      </c>
+      <c r="D76">
+        <v>188</v>
+      </c>
+      <c r="E76">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2019</v>
+      </c>
+      <c r="B77">
         <v>4</v>
       </c>
-      <c r="B40">
-        <v>26</v>
-      </c>
-      <c r="C40">
-        <v>56</v>
-      </c>
-      <c r="D40">
-        <v>86</v>
-      </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <v>36</v>
-      </c>
-      <c r="H40">
-        <v>66</v>
-      </c>
-      <c r="I40">
-        <v>96</v>
-      </c>
-      <c r="K40" t="s">
-        <v>4</v>
-      </c>
-      <c r="L40">
-        <v>46</v>
-      </c>
-      <c r="M40">
-        <v>76</v>
-      </c>
-      <c r="N40">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="C77">
+        <v>190</v>
+      </c>
+      <c r="D77">
+        <v>191</v>
+      </c>
+      <c r="E77">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2019</v>
+      </c>
+      <c r="B78">
         <v>5</v>
       </c>
-      <c r="B41">
-        <v>27</v>
-      </c>
-      <c r="C41">
-        <v>57</v>
-      </c>
-      <c r="D41">
-        <v>87</v>
-      </c>
-      <c r="F41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41">
-        <v>37</v>
-      </c>
-      <c r="H41">
-        <v>67</v>
-      </c>
-      <c r="I41">
-        <v>97</v>
-      </c>
-      <c r="K41" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41">
-        <v>47</v>
-      </c>
-      <c r="M41">
-        <v>77</v>
-      </c>
-      <c r="N41">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="C78">
+        <v>193</v>
+      </c>
+      <c r="D78">
+        <v>194</v>
+      </c>
+      <c r="E78">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2019</v>
+      </c>
+      <c r="B79">
         <v>6</v>
       </c>
-      <c r="B42">
-        <v>28</v>
-      </c>
-      <c r="C42">
-        <v>58</v>
-      </c>
-      <c r="D42">
-        <v>88</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42">
-        <v>38</v>
-      </c>
-      <c r="H42">
-        <v>68</v>
-      </c>
-      <c r="I42">
-        <v>98</v>
-      </c>
-      <c r="K42" t="s">
-        <v>6</v>
-      </c>
-      <c r="L42">
-        <v>48</v>
-      </c>
-      <c r="M42">
-        <v>78</v>
-      </c>
-      <c r="N42">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C79">
+        <v>196</v>
+      </c>
+      <c r="D79">
+        <v>197</v>
+      </c>
+      <c r="E79">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2019</v>
+      </c>
+      <c r="B80">
         <v>7</v>
       </c>
-      <c r="B43">
-        <v>29</v>
-      </c>
-      <c r="C43">
-        <v>59</v>
-      </c>
-      <c r="D43">
-        <v>89</v>
-      </c>
-      <c r="F43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43">
-        <v>39</v>
-      </c>
-      <c r="H43">
-        <v>69</v>
-      </c>
-      <c r="I43">
-        <v>99</v>
-      </c>
-      <c r="K43" t="s">
-        <v>7</v>
-      </c>
-      <c r="L43">
-        <v>49</v>
-      </c>
-      <c r="M43">
-        <v>79</v>
-      </c>
-      <c r="N43">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C80">
+        <v>199</v>
+      </c>
+      <c r="D80">
+        <v>200</v>
+      </c>
+      <c r="E80">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2019</v>
+      </c>
+      <c r="B81">
         <v>8</v>
       </c>
-      <c r="B44">
-        <v>30</v>
-      </c>
-      <c r="C44">
-        <v>60</v>
-      </c>
-      <c r="D44">
-        <v>90</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44">
-        <v>40</v>
-      </c>
-      <c r="H44">
-        <v>70</v>
-      </c>
-      <c r="I44">
-        <v>100</v>
-      </c>
-      <c r="K44" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44">
-        <v>50</v>
-      </c>
-      <c r="M44">
-        <v>80</v>
-      </c>
-      <c r="N44">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45">
-        <v>31</v>
-      </c>
-      <c r="C45">
-        <v>61</v>
-      </c>
-      <c r="D45">
-        <v>91</v>
-      </c>
-      <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45">
-        <v>41</v>
-      </c>
-      <c r="H45">
-        <v>71</v>
-      </c>
-      <c r="I45">
-        <v>101</v>
-      </c>
-      <c r="K45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45">
-        <v>51</v>
-      </c>
-      <c r="M45">
-        <v>81</v>
-      </c>
-      <c r="N45">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C81">
+        <v>202</v>
+      </c>
+      <c r="D81">
+        <v>203</v>
+      </c>
+      <c r="E81">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2019</v>
+      </c>
+      <c r="B82">
         <v>9</v>
       </c>
-      <c r="B46">
-        <v>32</v>
-      </c>
-      <c r="C46">
-        <v>62</v>
-      </c>
-      <c r="D46">
-        <v>92</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46">
-        <v>42</v>
-      </c>
-      <c r="H46">
-        <v>72</v>
-      </c>
-      <c r="I46">
-        <v>102</v>
-      </c>
-      <c r="K46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46">
-        <v>52</v>
-      </c>
-      <c r="M46">
-        <v>82</v>
-      </c>
-      <c r="N46">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="C82">
+        <v>205</v>
+      </c>
+      <c r="D82">
+        <v>206</v>
+      </c>
+      <c r="E82">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2019</v>
+      </c>
+      <c r="B83">
         <v>10</v>
       </c>
-      <c r="B47">
-        <v>33</v>
-      </c>
-      <c r="C47">
-        <v>63</v>
-      </c>
-      <c r="D47">
-        <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47">
-        <v>43</v>
-      </c>
-      <c r="H47">
-        <v>73</v>
-      </c>
-      <c r="I47">
-        <v>103</v>
-      </c>
-      <c r="K47" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47">
-        <v>53</v>
-      </c>
-      <c r="M47">
-        <v>83</v>
-      </c>
-      <c r="N47">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="C83">
+        <v>208</v>
+      </c>
+      <c r="D83">
+        <v>209</v>
+      </c>
+      <c r="E83">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2019</v>
+      </c>
+      <c r="B84">
         <v>11</v>
       </c>
-      <c r="B48">
-        <v>34</v>
-      </c>
-      <c r="C48">
-        <v>64</v>
-      </c>
-      <c r="D48">
-        <v>94</v>
-      </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48">
-        <v>44</v>
-      </c>
-      <c r="H48">
-        <v>74</v>
-      </c>
-      <c r="I48">
-        <v>104</v>
-      </c>
-      <c r="K48" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48">
-        <v>54</v>
-      </c>
-      <c r="M48">
-        <v>84</v>
-      </c>
-      <c r="N48">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="C84">
+        <v>211</v>
+      </c>
+      <c r="D84">
+        <v>212</v>
+      </c>
+      <c r="E84">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2019</v>
+      </c>
+      <c r="B85">
         <v>12</v>
       </c>
-      <c r="B49">
-        <v>35</v>
-      </c>
-      <c r="C49">
-        <v>65</v>
-      </c>
-      <c r="D49">
-        <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49">
-        <v>45</v>
-      </c>
-      <c r="H49">
-        <v>75</v>
-      </c>
-      <c r="I49">
-        <v>105</v>
-      </c>
-      <c r="K49" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49">
-        <v>55</v>
-      </c>
-      <c r="M49">
-        <v>85</v>
-      </c>
-      <c r="N49">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50">
-        <v>36</v>
-      </c>
-      <c r="C50">
-        <v>66</v>
-      </c>
-      <c r="D50">
-        <v>96</v>
-      </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50">
-        <v>46</v>
-      </c>
-      <c r="H50">
-        <v>76</v>
-      </c>
-      <c r="I50">
-        <v>106</v>
-      </c>
-      <c r="K50" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50">
-        <v>56</v>
-      </c>
-      <c r="M50">
-        <v>86</v>
-      </c>
-      <c r="N50">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51">
-        <v>37</v>
-      </c>
-      <c r="C51">
-        <v>67</v>
-      </c>
-      <c r="D51">
-        <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51">
-        <v>47</v>
-      </c>
-      <c r="H51">
-        <v>77</v>
-      </c>
-      <c r="I51">
-        <v>107</v>
-      </c>
-      <c r="K51" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51">
-        <v>57</v>
-      </c>
-      <c r="M51">
-        <v>87</v>
-      </c>
-      <c r="N51">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52">
-        <v>38</v>
-      </c>
-      <c r="C52">
-        <v>68</v>
-      </c>
-      <c r="D52">
-        <v>98</v>
-      </c>
-      <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52">
-        <v>48</v>
-      </c>
-      <c r="H52">
-        <v>78</v>
-      </c>
-      <c r="I52">
-        <v>108</v>
-      </c>
-      <c r="K52" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52">
-        <v>58</v>
-      </c>
-      <c r="M52">
-        <v>88</v>
-      </c>
-      <c r="N52">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53">
-        <v>39</v>
-      </c>
-      <c r="C53">
-        <v>69</v>
-      </c>
-      <c r="D53">
-        <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53">
-        <v>49</v>
-      </c>
-      <c r="H53">
-        <v>79</v>
-      </c>
-      <c r="I53">
-        <v>109</v>
-      </c>
-      <c r="K53" t="s">
-        <v>16</v>
-      </c>
-      <c r="L53">
-        <v>59</v>
-      </c>
-      <c r="M53">
-        <v>89</v>
-      </c>
-      <c r="N53">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54">
-        <v>40</v>
-      </c>
-      <c r="C54">
-        <v>70</v>
-      </c>
-      <c r="D54">
-        <v>100</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54">
-        <v>50</v>
-      </c>
-      <c r="H54">
-        <v>80</v>
-      </c>
-      <c r="I54">
-        <v>110</v>
-      </c>
-      <c r="K54" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54">
-        <v>60</v>
-      </c>
-      <c r="M54">
-        <v>90</v>
-      </c>
-      <c r="N54">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55">
-        <v>41</v>
-      </c>
-      <c r="C55">
-        <v>71</v>
-      </c>
-      <c r="D55">
-        <v>101</v>
-      </c>
-      <c r="F55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55">
-        <v>51</v>
-      </c>
-      <c r="H55">
-        <v>81</v>
-      </c>
-      <c r="I55">
-        <v>111</v>
-      </c>
-      <c r="K55" t="s">
-        <v>28</v>
-      </c>
-      <c r="L55">
-        <v>61</v>
-      </c>
-      <c r="M55">
-        <v>91</v>
-      </c>
-      <c r="N55">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56">
-        <v>42</v>
-      </c>
-      <c r="C56">
-        <v>72</v>
-      </c>
-      <c r="D56">
-        <v>102</v>
-      </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56">
-        <v>52</v>
-      </c>
-      <c r="H56">
-        <v>82</v>
-      </c>
-      <c r="I56">
-        <v>112</v>
-      </c>
-      <c r="K56" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56">
-        <v>62</v>
-      </c>
-      <c r="M56">
-        <v>92</v>
-      </c>
-      <c r="N56">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57">
-        <v>43</v>
-      </c>
-      <c r="C57">
-        <v>73</v>
-      </c>
-      <c r="D57">
-        <v>103</v>
-      </c>
-      <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57">
-        <v>53</v>
-      </c>
-      <c r="H57">
-        <v>83</v>
-      </c>
-      <c r="I57">
-        <v>113</v>
-      </c>
-      <c r="K57" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57">
-        <v>63</v>
-      </c>
-      <c r="M57">
-        <v>93</v>
-      </c>
-      <c r="N57">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58">
-        <v>44</v>
-      </c>
-      <c r="C58">
-        <v>74</v>
-      </c>
-      <c r="D58">
-        <v>104</v>
-      </c>
-      <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58">
-        <v>54</v>
-      </c>
-      <c r="H58">
-        <v>84</v>
-      </c>
-      <c r="I58">
-        <v>114</v>
-      </c>
-      <c r="K58" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58">
-        <v>64</v>
-      </c>
-      <c r="M58">
-        <v>94</v>
-      </c>
-      <c r="N58">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59">
-        <v>45</v>
-      </c>
-      <c r="C59">
-        <v>75</v>
-      </c>
-      <c r="D59">
-        <v>105</v>
-      </c>
-      <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59">
-        <v>55</v>
-      </c>
-      <c r="H59">
-        <v>85</v>
-      </c>
-      <c r="I59">
-        <v>115</v>
-      </c>
-      <c r="K59" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59">
-        <v>65</v>
-      </c>
-      <c r="M59">
-        <v>95</v>
-      </c>
-      <c r="N59">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60">
-        <v>46</v>
-      </c>
-      <c r="C60">
-        <v>76</v>
-      </c>
-      <c r="D60">
-        <v>106</v>
-      </c>
-      <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60">
-        <v>56</v>
-      </c>
-      <c r="H60">
-        <v>86</v>
-      </c>
-      <c r="I60">
-        <v>116</v>
-      </c>
-      <c r="K60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60">
-        <v>66</v>
-      </c>
-      <c r="M60">
-        <v>96</v>
-      </c>
-      <c r="N60">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61">
-        <v>47</v>
-      </c>
-      <c r="C61">
-        <v>77</v>
-      </c>
-      <c r="D61">
-        <v>107</v>
-      </c>
-      <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61">
-        <v>57</v>
-      </c>
-      <c r="H61">
-        <v>87</v>
-      </c>
-      <c r="I61">
-        <v>117</v>
-      </c>
-      <c r="K61" t="s">
-        <v>23</v>
-      </c>
-      <c r="L61">
-        <v>67</v>
-      </c>
-      <c r="M61">
-        <v>97</v>
-      </c>
-      <c r="N61">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62">
-        <v>48</v>
-      </c>
-      <c r="C62">
-        <v>78</v>
-      </c>
-      <c r="D62">
-        <v>108</v>
-      </c>
-      <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62">
-        <v>58</v>
-      </c>
-      <c r="H62">
-        <v>88</v>
-      </c>
-      <c r="I62">
-        <v>118</v>
-      </c>
-      <c r="K62" t="s">
-        <v>24</v>
-      </c>
-      <c r="L62">
-        <v>68</v>
-      </c>
-      <c r="M62">
-        <v>98</v>
-      </c>
-      <c r="N62">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63">
-        <v>49</v>
-      </c>
-      <c r="C63">
-        <v>79</v>
-      </c>
-      <c r="D63">
-        <v>109</v>
-      </c>
-      <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63">
-        <v>59</v>
-      </c>
-      <c r="H63">
-        <v>89</v>
-      </c>
-      <c r="I63">
-        <v>119</v>
-      </c>
-      <c r="K63" t="s">
-        <v>25</v>
-      </c>
-      <c r="L63">
-        <v>69</v>
-      </c>
-      <c r="M63">
-        <v>99</v>
-      </c>
-      <c r="N63">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64">
-        <v>50</v>
-      </c>
-      <c r="C64">
-        <v>80</v>
-      </c>
-      <c r="D64">
-        <v>110</v>
-      </c>
-      <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64">
-        <v>60</v>
-      </c>
-      <c r="H64">
-        <v>90</v>
-      </c>
-      <c r="I64">
-        <v>120</v>
-      </c>
-      <c r="K64" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64">
-        <v>70</v>
-      </c>
-      <c r="M64">
-        <v>100</v>
-      </c>
-      <c r="N64">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69">
-        <v>42</v>
-      </c>
-      <c r="C69">
-        <v>72</v>
-      </c>
-      <c r="D69">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>43</v>
-      </c>
-      <c r="C70">
-        <v>73</v>
-      </c>
-      <c r="D70">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71">
-        <v>44</v>
-      </c>
-      <c r="C71">
-        <v>74</v>
-      </c>
-      <c r="D71">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72">
-        <v>45</v>
-      </c>
-      <c r="C72">
-        <v>75</v>
-      </c>
-      <c r="D72">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73">
-        <v>46</v>
-      </c>
-      <c r="C73">
-        <v>76</v>
-      </c>
-      <c r="D73">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74">
-        <v>47</v>
-      </c>
-      <c r="C74">
-        <v>77</v>
-      </c>
-      <c r="D74">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75">
-        <v>48</v>
-      </c>
-      <c r="C75">
-        <v>78</v>
-      </c>
-      <c r="D75">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76">
-        <v>49</v>
-      </c>
-      <c r="C76">
-        <v>79</v>
-      </c>
-      <c r="D76">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77">
-        <v>50</v>
-      </c>
-      <c r="C77">
-        <v>80</v>
-      </c>
-      <c r="D77">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>27</v>
-      </c>
-      <c r="B78">
-        <v>51</v>
-      </c>
-      <c r="C78">
-        <v>81</v>
-      </c>
-      <c r="D78">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79">
-        <v>52</v>
-      </c>
-      <c r="C79">
-        <v>82</v>
-      </c>
-      <c r="D79">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80">
-        <v>53</v>
-      </c>
-      <c r="C80">
-        <v>83</v>
-      </c>
-      <c r="D80">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81">
-        <v>54</v>
-      </c>
-      <c r="C81">
-        <v>84</v>
-      </c>
-      <c r="D81">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82">
-        <v>55</v>
-      </c>
-      <c r="C82">
-        <v>85</v>
-      </c>
-      <c r="D82">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83">
-        <v>56</v>
-      </c>
-      <c r="C83">
-        <v>86</v>
-      </c>
-      <c r="D83">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84">
-        <v>57</v>
-      </c>
-      <c r="C84">
-        <v>87</v>
-      </c>
-      <c r="D84">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85">
-        <v>58</v>
-      </c>
       <c r="C85">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="D85">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86">
-        <v>59</v>
-      </c>
-      <c r="C86">
-        <v>89</v>
-      </c>
-      <c r="D86">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87">
-        <v>60</v>
-      </c>
-      <c r="C87">
-        <v>90</v>
-      </c>
-      <c r="D87">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88">
-        <v>61</v>
-      </c>
-      <c r="C88">
-        <v>91</v>
-      </c>
-      <c r="D88">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89">
-        <v>62</v>
-      </c>
-      <c r="C89">
-        <v>92</v>
-      </c>
-      <c r="D89">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90">
-        <v>63</v>
-      </c>
-      <c r="C90">
-        <v>93</v>
-      </c>
-      <c r="D90">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91">
-        <v>64</v>
-      </c>
-      <c r="C91">
-        <v>94</v>
-      </c>
-      <c r="D91">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92">
-        <v>65</v>
-      </c>
-      <c r="C92">
-        <v>95</v>
-      </c>
-      <c r="D92">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93">
-        <v>66</v>
-      </c>
-      <c r="C93">
-        <v>96</v>
-      </c>
-      <c r="D93">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94">
-        <v>67</v>
-      </c>
-      <c r="C94">
-        <v>97</v>
-      </c>
-      <c r="D94">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95">
-        <v>68</v>
-      </c>
-      <c r="C95">
-        <v>98</v>
-      </c>
-      <c r="D95">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>25</v>
-      </c>
-      <c r="B96">
-        <v>69</v>
-      </c>
-      <c r="C96">
-        <v>99</v>
-      </c>
-      <c r="D96">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97">
-        <v>70</v>
-      </c>
-      <c r="C97">
-        <v>100</v>
-      </c>
-      <c r="D97">
-        <v>130</v>
+        <v>215</v>
+      </c>
+      <c r="E85">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3563,7 +2392,7 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12871,4 +11700,3109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>52</v>
+      </c>
+      <c r="N3">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>32</v>
+      </c>
+      <c r="R3">
+        <v>62</v>
+      </c>
+      <c r="S3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>53</v>
+      </c>
+      <c r="N4">
+        <v>83</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>33</v>
+      </c>
+      <c r="R4">
+        <v>63</v>
+      </c>
+      <c r="S4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>54</v>
+      </c>
+      <c r="N5">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>34</v>
+      </c>
+      <c r="R5">
+        <v>64</v>
+      </c>
+      <c r="S5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>55</v>
+      </c>
+      <c r="N6">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>35</v>
+      </c>
+      <c r="R6">
+        <v>65</v>
+      </c>
+      <c r="S6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>56</v>
+      </c>
+      <c r="N7">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>36</v>
+      </c>
+      <c r="R7">
+        <v>66</v>
+      </c>
+      <c r="S7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>57</v>
+      </c>
+      <c r="N8">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <v>67</v>
+      </c>
+      <c r="S8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>28</v>
+      </c>
+      <c r="M9">
+        <v>58</v>
+      </c>
+      <c r="N9">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>38</v>
+      </c>
+      <c r="R9">
+        <v>68</v>
+      </c>
+      <c r="S9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>49</v>
+      </c>
+      <c r="I10">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>59</v>
+      </c>
+      <c r="N10">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>39</v>
+      </c>
+      <c r="R10">
+        <v>69</v>
+      </c>
+      <c r="S10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>40</v>
+      </c>
+      <c r="R11">
+        <v>70</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>51</v>
+      </c>
+      <c r="I12">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12">
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <v>61</v>
+      </c>
+      <c r="N12">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12">
+        <v>41</v>
+      </c>
+      <c r="R12">
+        <v>71</v>
+      </c>
+      <c r="S12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>52</v>
+      </c>
+      <c r="I13">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>32</v>
+      </c>
+      <c r="M13">
+        <v>62</v>
+      </c>
+      <c r="N13">
+        <v>92</v>
+      </c>
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13">
+        <v>42</v>
+      </c>
+      <c r="R13">
+        <v>72</v>
+      </c>
+      <c r="S13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>53</v>
+      </c>
+      <c r="I14">
+        <v>83</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>33</v>
+      </c>
+      <c r="M14">
+        <v>63</v>
+      </c>
+      <c r="N14">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>43</v>
+      </c>
+      <c r="R14">
+        <v>73</v>
+      </c>
+      <c r="S14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>54</v>
+      </c>
+      <c r="I15">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>34</v>
+      </c>
+      <c r="M15">
+        <v>64</v>
+      </c>
+      <c r="N15">
+        <v>94</v>
+      </c>
+      <c r="P15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>44</v>
+      </c>
+      <c r="R15">
+        <v>74</v>
+      </c>
+      <c r="S15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>55</v>
+      </c>
+      <c r="I16">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>65</v>
+      </c>
+      <c r="N16">
+        <v>95</v>
+      </c>
+      <c r="P16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <v>45</v>
+      </c>
+      <c r="R16">
+        <v>75</v>
+      </c>
+      <c r="S16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>56</v>
+      </c>
+      <c r="I17">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>66</v>
+      </c>
+      <c r="N17">
+        <v>96</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>46</v>
+      </c>
+      <c r="R17">
+        <v>76</v>
+      </c>
+      <c r="S17">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>27</v>
+      </c>
+      <c r="H18">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>37</v>
+      </c>
+      <c r="M18">
+        <v>67</v>
+      </c>
+      <c r="N18">
+        <v>97</v>
+      </c>
+      <c r="P18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18">
+        <v>47</v>
+      </c>
+      <c r="R18">
+        <v>77</v>
+      </c>
+      <c r="S18">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>58</v>
+      </c>
+      <c r="I19">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>38</v>
+      </c>
+      <c r="M19">
+        <v>68</v>
+      </c>
+      <c r="N19">
+        <v>98</v>
+      </c>
+      <c r="P19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>48</v>
+      </c>
+      <c r="R19">
+        <v>78</v>
+      </c>
+      <c r="S19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>29</v>
+      </c>
+      <c r="H20">
+        <v>59</v>
+      </c>
+      <c r="I20">
+        <v>89</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>39</v>
+      </c>
+      <c r="M20">
+        <v>69</v>
+      </c>
+      <c r="N20">
+        <v>99</v>
+      </c>
+      <c r="P20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20">
+        <v>49</v>
+      </c>
+      <c r="R20">
+        <v>79</v>
+      </c>
+      <c r="S20">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>90</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>70</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21">
+        <v>50</v>
+      </c>
+      <c r="R21">
+        <v>80</v>
+      </c>
+      <c r="S21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>61</v>
+      </c>
+      <c r="I22">
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22">
+        <v>71</v>
+      </c>
+      <c r="N22">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22">
+        <v>51</v>
+      </c>
+      <c r="R22">
+        <v>81</v>
+      </c>
+      <c r="S22">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>62</v>
+      </c>
+      <c r="I23">
+        <v>92</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <v>42</v>
+      </c>
+      <c r="M23">
+        <v>72</v>
+      </c>
+      <c r="N23">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23">
+        <v>52</v>
+      </c>
+      <c r="R23">
+        <v>82</v>
+      </c>
+      <c r="S23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>33</v>
+      </c>
+      <c r="H24">
+        <v>63</v>
+      </c>
+      <c r="I24">
+        <v>93</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <v>43</v>
+      </c>
+      <c r="M24">
+        <v>73</v>
+      </c>
+      <c r="N24">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24">
+        <v>53</v>
+      </c>
+      <c r="R24">
+        <v>83</v>
+      </c>
+      <c r="S24">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>34</v>
+      </c>
+      <c r="H25">
+        <v>64</v>
+      </c>
+      <c r="I25">
+        <v>94</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>44</v>
+      </c>
+      <c r="M25">
+        <v>74</v>
+      </c>
+      <c r="N25">
+        <v>104</v>
+      </c>
+      <c r="P25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25">
+        <v>54</v>
+      </c>
+      <c r="R25">
+        <v>84</v>
+      </c>
+      <c r="S25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <v>35</v>
+      </c>
+      <c r="H26">
+        <v>65</v>
+      </c>
+      <c r="I26">
+        <v>95</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26">
+        <v>45</v>
+      </c>
+      <c r="M26">
+        <v>75</v>
+      </c>
+      <c r="N26">
+        <v>105</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26">
+        <v>55</v>
+      </c>
+      <c r="R26">
+        <v>85</v>
+      </c>
+      <c r="S26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>36</v>
+      </c>
+      <c r="H27">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>96</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27">
+        <v>46</v>
+      </c>
+      <c r="M27">
+        <v>76</v>
+      </c>
+      <c r="N27">
+        <v>106</v>
+      </c>
+      <c r="P27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27">
+        <v>56</v>
+      </c>
+      <c r="R27">
+        <v>86</v>
+      </c>
+      <c r="S27">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <v>37</v>
+      </c>
+      <c r="H28">
+        <v>67</v>
+      </c>
+      <c r="I28">
+        <v>97</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28">
+        <v>47</v>
+      </c>
+      <c r="M28">
+        <v>77</v>
+      </c>
+      <c r="N28">
+        <v>107</v>
+      </c>
+      <c r="P28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28">
+        <v>57</v>
+      </c>
+      <c r="R28">
+        <v>87</v>
+      </c>
+      <c r="S28">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>68</v>
+      </c>
+      <c r="I29">
+        <v>98</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>48</v>
+      </c>
+      <c r="M29">
+        <v>78</v>
+      </c>
+      <c r="N29">
+        <v>108</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29">
+        <v>58</v>
+      </c>
+      <c r="R29">
+        <v>88</v>
+      </c>
+      <c r="S29">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>59</v>
+      </c>
+      <c r="D30">
+        <v>89</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>39</v>
+      </c>
+      <c r="H30">
+        <v>69</v>
+      </c>
+      <c r="I30">
+        <v>99</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <v>49</v>
+      </c>
+      <c r="M30">
+        <v>79</v>
+      </c>
+      <c r="N30">
+        <v>109</v>
+      </c>
+      <c r="P30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30">
+        <v>59</v>
+      </c>
+      <c r="R30">
+        <v>89</v>
+      </c>
+      <c r="S30">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>70</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>80</v>
+      </c>
+      <c r="N31">
+        <v>110</v>
+      </c>
+      <c r="P31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q31">
+        <v>60</v>
+      </c>
+      <c r="R31">
+        <v>90</v>
+      </c>
+      <c r="S31">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>52</v>
+      </c>
+      <c r="D36">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>32</v>
+      </c>
+      <c r="H36">
+        <v>62</v>
+      </c>
+      <c r="I36">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>42</v>
+      </c>
+      <c r="M36">
+        <v>72</v>
+      </c>
+      <c r="N36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>33</v>
+      </c>
+      <c r="H37">
+        <v>63</v>
+      </c>
+      <c r="I37">
+        <v>93</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>43</v>
+      </c>
+      <c r="M37">
+        <v>73</v>
+      </c>
+      <c r="N37">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>54</v>
+      </c>
+      <c r="D38">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>34</v>
+      </c>
+      <c r="H38">
+        <v>64</v>
+      </c>
+      <c r="I38">
+        <v>94</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>44</v>
+      </c>
+      <c r="M38">
+        <v>74</v>
+      </c>
+      <c r="N38">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>55</v>
+      </c>
+      <c r="D39">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>65</v>
+      </c>
+      <c r="I39">
+        <v>95</v>
+      </c>
+      <c r="K39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>45</v>
+      </c>
+      <c r="M39">
+        <v>75</v>
+      </c>
+      <c r="N39">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>56</v>
+      </c>
+      <c r="D40">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>36</v>
+      </c>
+      <c r="H40">
+        <v>66</v>
+      </c>
+      <c r="I40">
+        <v>96</v>
+      </c>
+      <c r="K40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>46</v>
+      </c>
+      <c r="M40">
+        <v>76</v>
+      </c>
+      <c r="N40">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>57</v>
+      </c>
+      <c r="D41">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>37</v>
+      </c>
+      <c r="H41">
+        <v>67</v>
+      </c>
+      <c r="I41">
+        <v>97</v>
+      </c>
+      <c r="K41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>47</v>
+      </c>
+      <c r="M41">
+        <v>77</v>
+      </c>
+      <c r="N41">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>38</v>
+      </c>
+      <c r="H42">
+        <v>68</v>
+      </c>
+      <c r="I42">
+        <v>98</v>
+      </c>
+      <c r="K42" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42">
+        <v>48</v>
+      </c>
+      <c r="M42">
+        <v>78</v>
+      </c>
+      <c r="N42">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>59</v>
+      </c>
+      <c r="D43">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>39</v>
+      </c>
+      <c r="H43">
+        <v>69</v>
+      </c>
+      <c r="I43">
+        <v>99</v>
+      </c>
+      <c r="K43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>49</v>
+      </c>
+      <c r="M43">
+        <v>79</v>
+      </c>
+      <c r="N43">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>70</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="K44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <v>80</v>
+      </c>
+      <c r="N44">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>91</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45">
+        <v>41</v>
+      </c>
+      <c r="H45">
+        <v>71</v>
+      </c>
+      <c r="I45">
+        <v>101</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45">
+        <v>51</v>
+      </c>
+      <c r="M45">
+        <v>81</v>
+      </c>
+      <c r="N45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>32</v>
+      </c>
+      <c r="C46">
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <v>92</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>42</v>
+      </c>
+      <c r="H46">
+        <v>72</v>
+      </c>
+      <c r="I46">
+        <v>102</v>
+      </c>
+      <c r="K46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>52</v>
+      </c>
+      <c r="M46">
+        <v>82</v>
+      </c>
+      <c r="N46">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>93</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>43</v>
+      </c>
+      <c r="H47">
+        <v>73</v>
+      </c>
+      <c r="I47">
+        <v>103</v>
+      </c>
+      <c r="K47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>53</v>
+      </c>
+      <c r="M47">
+        <v>83</v>
+      </c>
+      <c r="N47">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>44</v>
+      </c>
+      <c r="H48">
+        <v>74</v>
+      </c>
+      <c r="I48">
+        <v>104</v>
+      </c>
+      <c r="K48" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48">
+        <v>54</v>
+      </c>
+      <c r="M48">
+        <v>84</v>
+      </c>
+      <c r="N48">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>65</v>
+      </c>
+      <c r="D49">
+        <v>95</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>45</v>
+      </c>
+      <c r="H49">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <v>105</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49">
+        <v>55</v>
+      </c>
+      <c r="M49">
+        <v>85</v>
+      </c>
+      <c r="N49">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>66</v>
+      </c>
+      <c r="D50">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>46</v>
+      </c>
+      <c r="H50">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>106</v>
+      </c>
+      <c r="K50" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50">
+        <v>56</v>
+      </c>
+      <c r="M50">
+        <v>86</v>
+      </c>
+      <c r="N50">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>67</v>
+      </c>
+      <c r="D51">
+        <v>97</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>47</v>
+      </c>
+      <c r="H51">
+        <v>77</v>
+      </c>
+      <c r="I51">
+        <v>107</v>
+      </c>
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51">
+        <v>57</v>
+      </c>
+      <c r="M51">
+        <v>87</v>
+      </c>
+      <c r="N51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>68</v>
+      </c>
+      <c r="D52">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>48</v>
+      </c>
+      <c r="H52">
+        <v>78</v>
+      </c>
+      <c r="I52">
+        <v>108</v>
+      </c>
+      <c r="K52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52">
+        <v>58</v>
+      </c>
+      <c r="M52">
+        <v>88</v>
+      </c>
+      <c r="N52">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <v>69</v>
+      </c>
+      <c r="D53">
+        <v>99</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53">
+        <v>49</v>
+      </c>
+      <c r="H53">
+        <v>79</v>
+      </c>
+      <c r="I53">
+        <v>109</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53">
+        <v>59</v>
+      </c>
+      <c r="M53">
+        <v>89</v>
+      </c>
+      <c r="N53">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>70</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
+      <c r="H54">
+        <v>80</v>
+      </c>
+      <c r="I54">
+        <v>110</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54">
+        <v>60</v>
+      </c>
+      <c r="M54">
+        <v>90</v>
+      </c>
+      <c r="N54">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>41</v>
+      </c>
+      <c r="C55">
+        <v>71</v>
+      </c>
+      <c r="D55">
+        <v>101</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55">
+        <v>51</v>
+      </c>
+      <c r="H55">
+        <v>81</v>
+      </c>
+      <c r="I55">
+        <v>111</v>
+      </c>
+      <c r="K55" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55">
+        <v>61</v>
+      </c>
+      <c r="M55">
+        <v>91</v>
+      </c>
+      <c r="N55">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56">
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>72</v>
+      </c>
+      <c r="D56">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>52</v>
+      </c>
+      <c r="H56">
+        <v>82</v>
+      </c>
+      <c r="I56">
+        <v>112</v>
+      </c>
+      <c r="K56" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56">
+        <v>62</v>
+      </c>
+      <c r="M56">
+        <v>92</v>
+      </c>
+      <c r="N56">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>43</v>
+      </c>
+      <c r="C57">
+        <v>73</v>
+      </c>
+      <c r="D57">
+        <v>103</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <v>53</v>
+      </c>
+      <c r="H57">
+        <v>83</v>
+      </c>
+      <c r="I57">
+        <v>113</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57">
+        <v>63</v>
+      </c>
+      <c r="M57">
+        <v>93</v>
+      </c>
+      <c r="N57">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <v>44</v>
+      </c>
+      <c r="C58">
+        <v>74</v>
+      </c>
+      <c r="D58">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>54</v>
+      </c>
+      <c r="H58">
+        <v>84</v>
+      </c>
+      <c r="I58">
+        <v>114</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58">
+        <v>64</v>
+      </c>
+      <c r="M58">
+        <v>94</v>
+      </c>
+      <c r="N58">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>45</v>
+      </c>
+      <c r="C59">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>105</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59">
+        <v>55</v>
+      </c>
+      <c r="H59">
+        <v>85</v>
+      </c>
+      <c r="I59">
+        <v>115</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59">
+        <v>65</v>
+      </c>
+      <c r="M59">
+        <v>95</v>
+      </c>
+      <c r="N59">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>46</v>
+      </c>
+      <c r="C60">
+        <v>76</v>
+      </c>
+      <c r="D60">
+        <v>106</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60">
+        <v>56</v>
+      </c>
+      <c r="H60">
+        <v>86</v>
+      </c>
+      <c r="I60">
+        <v>116</v>
+      </c>
+      <c r="K60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60">
+        <v>66</v>
+      </c>
+      <c r="M60">
+        <v>96</v>
+      </c>
+      <c r="N60">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>47</v>
+      </c>
+      <c r="C61">
+        <v>77</v>
+      </c>
+      <c r="D61">
+        <v>107</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61">
+        <v>57</v>
+      </c>
+      <c r="H61">
+        <v>87</v>
+      </c>
+      <c r="I61">
+        <v>117</v>
+      </c>
+      <c r="K61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61">
+        <v>67</v>
+      </c>
+      <c r="M61">
+        <v>97</v>
+      </c>
+      <c r="N61">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>48</v>
+      </c>
+      <c r="C62">
+        <v>78</v>
+      </c>
+      <c r="D62">
+        <v>108</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62">
+        <v>58</v>
+      </c>
+      <c r="H62">
+        <v>88</v>
+      </c>
+      <c r="I62">
+        <v>118</v>
+      </c>
+      <c r="K62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62">
+        <v>68</v>
+      </c>
+      <c r="M62">
+        <v>98</v>
+      </c>
+      <c r="N62">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>49</v>
+      </c>
+      <c r="C63">
+        <v>79</v>
+      </c>
+      <c r="D63">
+        <v>109</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63">
+        <v>59</v>
+      </c>
+      <c r="H63">
+        <v>89</v>
+      </c>
+      <c r="I63">
+        <v>119</v>
+      </c>
+      <c r="K63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63">
+        <v>69</v>
+      </c>
+      <c r="M63">
+        <v>99</v>
+      </c>
+      <c r="N63">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <v>80</v>
+      </c>
+      <c r="D64">
+        <v>110</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64">
+        <v>60</v>
+      </c>
+      <c r="H64">
+        <v>90</v>
+      </c>
+      <c r="I64">
+        <v>120</v>
+      </c>
+      <c r="K64" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64">
+        <v>70</v>
+      </c>
+      <c r="M64">
+        <v>100</v>
+      </c>
+      <c r="N64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>42</v>
+      </c>
+      <c r="C69">
+        <v>72</v>
+      </c>
+      <c r="D69">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>43</v>
+      </c>
+      <c r="C70">
+        <v>73</v>
+      </c>
+      <c r="D70">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>44</v>
+      </c>
+      <c r="C71">
+        <v>74</v>
+      </c>
+      <c r="D71">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>45</v>
+      </c>
+      <c r="C72">
+        <v>75</v>
+      </c>
+      <c r="D72">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>46</v>
+      </c>
+      <c r="C73">
+        <v>76</v>
+      </c>
+      <c r="D73">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>47</v>
+      </c>
+      <c r="C74">
+        <v>77</v>
+      </c>
+      <c r="D74">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>48</v>
+      </c>
+      <c r="C75">
+        <v>78</v>
+      </c>
+      <c r="D75">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>79</v>
+      </c>
+      <c r="D76">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>80</v>
+      </c>
+      <c r="D77">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78">
+        <v>51</v>
+      </c>
+      <c r="C78">
+        <v>81</v>
+      </c>
+      <c r="D78">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>52</v>
+      </c>
+      <c r="C79">
+        <v>82</v>
+      </c>
+      <c r="D79">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>53</v>
+      </c>
+      <c r="C80">
+        <v>83</v>
+      </c>
+      <c r="D80">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>54</v>
+      </c>
+      <c r="C81">
+        <v>84</v>
+      </c>
+      <c r="D81">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>55</v>
+      </c>
+      <c r="C82">
+        <v>85</v>
+      </c>
+      <c r="D82">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>56</v>
+      </c>
+      <c r="C83">
+        <v>86</v>
+      </c>
+      <c r="D83">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>57</v>
+      </c>
+      <c r="C84">
+        <v>87</v>
+      </c>
+      <c r="D84">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>58</v>
+      </c>
+      <c r="C85">
+        <v>88</v>
+      </c>
+      <c r="D85">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86">
+        <v>59</v>
+      </c>
+      <c r="C86">
+        <v>89</v>
+      </c>
+      <c r="D86">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>60</v>
+      </c>
+      <c r="C87">
+        <v>90</v>
+      </c>
+      <c r="D87">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88">
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>91</v>
+      </c>
+      <c r="D88">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89">
+        <v>62</v>
+      </c>
+      <c r="C89">
+        <v>92</v>
+      </c>
+      <c r="D89">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90">
+        <v>63</v>
+      </c>
+      <c r="C90">
+        <v>93</v>
+      </c>
+      <c r="D90">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91">
+        <v>64</v>
+      </c>
+      <c r="C91">
+        <v>94</v>
+      </c>
+      <c r="D91">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92">
+        <v>65</v>
+      </c>
+      <c r="C92">
+        <v>95</v>
+      </c>
+      <c r="D92">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>66</v>
+      </c>
+      <c r="C93">
+        <v>96</v>
+      </c>
+      <c r="D93">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94">
+        <v>67</v>
+      </c>
+      <c r="C94">
+        <v>97</v>
+      </c>
+      <c r="D94">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95">
+        <v>68</v>
+      </c>
+      <c r="C95">
+        <v>98</v>
+      </c>
+      <c r="D95">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96">
+        <v>69</v>
+      </c>
+      <c r="C96">
+        <v>99</v>
+      </c>
+      <c r="D96">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97">
+        <v>70</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>